--- a/各部分开发文档&周期/timeline.xlsx
+++ b/各部分开发文档&周期/timeline.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="51">
   <si>
     <t>枪械武器</t>
   </si>
@@ -155,6 +155,44 @@
   </si>
   <si>
     <t>白色最低目标。蓝色理想目标。绿色最高目标。在项目进行的过程中优先实现最低目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>感知模块</t>
+  </si>
+  <si>
+    <t>移动模块</t>
+  </si>
+  <si>
+    <t>攻击模块</t>
+  </si>
+  <si>
+    <t>个体AI</t>
+  </si>
+  <si>
+    <t>敌方小队AI</t>
+  </si>
+  <si>
+    <t>收到玩家命令之后的运动模式</t>
+  </si>
+  <si>
+    <t>触发事件设置 动画调用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>包围盒碰撞检测</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>速度上的设定（比如爬坡的时候速度减缓，汽车惯性等)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被击中的反馈（扣血等，轮胎爆炸车速减慢或者不能开，血量为0时车辆爆炸）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>碰到地形的反馈（扣血，翻滚，血量为0时车辆爆炸）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -210,14 +248,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -525,7 +564,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -534,7 +573,8 @@
     <col min="2" max="2" width="41.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="50.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="72.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="27.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.15">
@@ -587,6 +627,12 @@
       <c r="D3" t="s">
         <v>30</v>
       </c>
+      <c r="E3" t="s">
+        <v>46</v>
+      </c>
+      <c r="F3" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="1" t="s">
@@ -598,8 +644,14 @@
       <c r="C4" t="s">
         <v>19</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>31</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
+      </c>
+      <c r="F4" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.15">
@@ -609,102 +661,122 @@
       <c r="B5" t="s">
         <v>22</v>
       </c>
-      <c r="C5" s="3" t="s">
+      <c r="C5" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>32</v>
+      </c>
+      <c r="E5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F5" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="1">
         <v>5.1100000000000003</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>38</v>
       </c>
       <c r="D6" t="s">
         <v>33</v>
+      </c>
+      <c r="E6" t="s">
+        <v>49</v>
+      </c>
+      <c r="F6" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>20</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="F7" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>5.25</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+      <c r="F8" t="s">
+        <v>45</v>
+      </c>
+      <c r="G8" s="5"/>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B10" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="2" t="s">
+      <c r="B11" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A12" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B12" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.15">
       <c r="B14" t="s">
@@ -717,8 +789,7 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="B8:G8"/>
+  <mergeCells count="4">
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B11:G11"/>
